--- a/data/bound/scheme.xlsx
+++ b/data/bound/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsamsonov/GitHub/r-geo-course/data/bound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{969FA030-B845-8E43-8299-95F8F9D53375}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0747F7-E013-5042-92D0-EBE2C6E24A21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{E196A70A-792D-944D-A73B-AD13ADE70C4E}"/>
+    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{E196A70A-792D-944D-A73B-AD13ADE70C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Формат" sheetId="1" r:id="rId1"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5927BF-6929-2941-B3B1-3AA54CDB1125}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF051C5-5CCF-3C4F-9611-4AC1FBB4E8EF}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/bound/scheme.xlsx
+++ b/data/bound/scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsamsonov/GitHub/r-geo-course/data/bound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0747F7-E013-5042-92D0-EBE2C6E24A21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954B5336-FBB2-CC46-95C9-6AE599B8CBB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{E196A70A-792D-944D-A73B-AD13ADE70C4E}"/>
+    <workbookView xWindow="20420" yWindow="2400" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{E196A70A-792D-944D-A73B-AD13ADE70C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Формат" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>Призначная часть/ метеоэлемент/число наблюдений</t>
   </si>
@@ -277,130 +277,43 @@
     <t xml:space="preserve">Долгота </t>
   </si>
   <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>20674*</t>
-  </si>
-  <si>
     <t>Остров Диксон</t>
   </si>
   <si>
-    <t>73,50° с.ш.</t>
-  </si>
-  <si>
-    <t>80,42 ° в.д.</t>
-  </si>
-  <si>
     <t>Тикси</t>
   </si>
   <si>
-    <t>71,35° с.ш.</t>
-  </si>
-  <si>
-    <t>128,55° в.д.</t>
-  </si>
-  <si>
     <t>Мурманск</t>
   </si>
   <si>
-    <t>68,59° с.ш.</t>
-  </si>
-  <si>
-    <t>33,07° в.д.</t>
-  </si>
-  <si>
     <t>Кандалакша</t>
   </si>
   <si>
-    <t>67,09° с.ш.</t>
-  </si>
-  <si>
-    <t>32,21° в.д.</t>
-  </si>
-  <si>
     <t>Шойна</t>
   </si>
   <si>
-    <t>67,53° с.ш.</t>
-  </si>
-  <si>
-    <t>44,09° в.д.</t>
-  </si>
-  <si>
     <t>Норильск</t>
   </si>
   <si>
-    <t>69,20° с.ш.</t>
-  </si>
-  <si>
-    <t>88,18° в.д.</t>
-  </si>
-  <si>
     <t>Нарьян-Мар</t>
   </si>
   <si>
-    <t>67,39° с.ш.</t>
-  </si>
-  <si>
-    <t>53,07° в.д.</t>
-  </si>
-  <si>
     <t>Салехард</t>
   </si>
   <si>
-    <t>66,32° с.ш.</t>
-  </si>
-  <si>
-    <t>66,40° в.д.</t>
-  </si>
-  <si>
     <t>Оленек</t>
   </si>
   <si>
-    <t>68,31° с.ш.</t>
-  </si>
-  <si>
-    <t>112,26° в.д.</t>
-  </si>
-  <si>
-    <t>24266*</t>
-  </si>
-  <si>
     <t>Верхоянск</t>
   </si>
   <si>
-    <t>67,55° с.ш.</t>
-  </si>
-  <si>
-    <t>133,38° в.д.</t>
-  </si>
-  <si>
     <t>Жиганск</t>
   </si>
   <si>
-    <t>66,46° с.ш.</t>
-  </si>
-  <si>
-    <t>123,21° в.д.</t>
-  </si>
-  <si>
     <t>Новолазаревская</t>
   </si>
   <si>
-    <t>70,75° ю.ш.</t>
-  </si>
-  <si>
-    <t>11,83° в.д.</t>
-  </si>
-  <si>
     <t>Мирный</t>
-  </si>
-  <si>
-    <t>66,65° ю.ш.</t>
-  </si>
-  <si>
-    <t>19,71° в.д.</t>
   </si>
 </sst>
 </file>
@@ -465,12 +378,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1214,19 +1133,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF051C5-5CCF-3C4F-9611-4AC1FBB4E8EF}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1239,204 +1157,188 @@
       <c r="D1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>20674</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>80.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>21824</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="3">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="D3" s="3">
+        <v>128.55000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>22113</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="3">
+        <v>68.59</v>
+      </c>
+      <c r="D4" s="3">
+        <v>33.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>22217</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" s="3">
+        <v>67.09</v>
+      </c>
+      <c r="D5" s="3">
+        <v>32.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>22271</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>21824</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C6" s="3">
+        <v>67.53</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>23078</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>88.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>23205</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C8" s="3">
+        <v>67.39</v>
+      </c>
+      <c r="D8" s="3">
+        <v>53.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>23330</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>22113</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C9" s="3">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="D9" s="3">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>24125</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C10" s="3">
+        <v>68.31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>112.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>24266</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C11" s="3">
+        <v>67.55</v>
+      </c>
+      <c r="D11" s="3">
+        <v>133.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>24343</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>22217</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C12" s="3">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="D12" s="3">
+        <v>123.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>89512</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C13" s="3">
+        <v>-70.75</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>89592</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>22271</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>23078</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>23205</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>23330</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>24125</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>24343</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>89512</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>89592</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3">
+        <v>-66.650000000000006</v>
+      </c>
+      <c r="D14" s="3">
+        <v>19.71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/bound/scheme.xlsx
+++ b/data/bound/scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsamsonov/GitHub/r-geo-course/data/bound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954B5336-FBB2-CC46-95C9-6AE599B8CBB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A860B7-2450-AD42-820D-8E5EF4DDD1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20420" yWindow="2400" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{E196A70A-792D-944D-A73B-AD13ADE70C4E}"/>
   </bookViews>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
